--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/46.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/46.xlsx
@@ -479,13 +479,13 @@
         <v>-13.6143911614531</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.973283789318355</v>
+        <v>-8.914198226593646</v>
       </c>
       <c r="F2" t="n">
-        <v>6.068541499357775</v>
+        <v>6.229026947591653</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.93144998061051</v>
+        <v>-16.05395465830054</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.39460273196215</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.22112108211223</v>
+        <v>-9.151208184937412</v>
       </c>
       <c r="F3" t="n">
-        <v>5.991035066534756</v>
+        <v>6.152646452813023</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.4691083980578</v>
+        <v>-15.58962304571588</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.10000057183736</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.263121189628487</v>
+        <v>-9.190799308730792</v>
       </c>
       <c r="F4" t="n">
-        <v>6.111065298987701</v>
+        <v>6.261574412456184</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.67084450919207</v>
+        <v>-14.77677433148448</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.75382630337975</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.22887490874841</v>
+        <v>-10.15726001220417</v>
       </c>
       <c r="F5" t="n">
-        <v>6.183806133576331</v>
+        <v>6.341201798339562</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.65211933277453</v>
+        <v>-13.73804411632477</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.3652877551075</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.82511147246346</v>
+        <v>-10.75484508311191</v>
       </c>
       <c r="F6" t="n">
-        <v>6.388334088569776</v>
+        <v>6.552380643176604</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.90058187275092</v>
+        <v>-12.96633141762207</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.93272355166688</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.65982433244054</v>
+        <v>-11.60257169211368</v>
       </c>
       <c r="F7" t="n">
-        <v>6.708781292923863</v>
+        <v>6.874582216111482</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.53468810187933</v>
+        <v>-11.58184657671522</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.46795834946341</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.46434634206461</v>
+        <v>-12.40718534785763</v>
       </c>
       <c r="F8" t="n">
-        <v>6.991993987996081</v>
+        <v>7.163895924307945</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.79045614684141</v>
+        <v>-10.82519002628051</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.97644611260882</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.20709886688141</v>
+        <v>-13.14021029166304</v>
       </c>
       <c r="F9" t="n">
-        <v>7.05706273311946</v>
+        <v>7.230535745772331</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.547302715110993</v>
+        <v>-9.55039249858164</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.4457444911444</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.2544830942195</v>
+        <v>-14.1971257154699</v>
       </c>
       <c r="F10" t="n">
-        <v>7.20626261630377</v>
+        <v>7.37298000069031</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.896196310186273</v>
+        <v>-8.891731834917243</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.885039065167343</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.14674971748881</v>
+        <v>-15.09546716725777</v>
       </c>
       <c r="F11" t="n">
-        <v>7.435901608147645</v>
+        <v>7.603299792281955</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.061850034688753</v>
+        <v>-8.036660444021273</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.292030634175068</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.42667942790164</v>
+        <v>-16.3848102434138</v>
       </c>
       <c r="F12" t="n">
-        <v>7.364470003843188</v>
+        <v>7.526552713023757</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.622249782172117</v>
+        <v>-7.590108178695679</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.656744153641347</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.41521375396617</v>
+        <v>-17.3913464858857</v>
       </c>
       <c r="F13" t="n">
-        <v>7.272274007231753</v>
+        <v>7.444071205120883</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.386902546289249</v>
+        <v>-7.361149986599574</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.995601110995278</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.80562940806032</v>
+        <v>-18.79122787493442</v>
       </c>
       <c r="F14" t="n">
-        <v>7.257584443443337</v>
+        <v>7.41848884536815</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.448917601496627</v>
+        <v>-6.413790952972276</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.312410787784523</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.90099692531333</v>
+        <v>-19.8917013902957</v>
       </c>
       <c r="F15" t="n">
-        <v>7.254232813915855</v>
+        <v>7.413173370414409</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.984887111877329</v>
+        <v>-5.957642029663698</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.610747487429629</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.86413218386491</v>
+        <v>-20.86762782872364</v>
       </c>
       <c r="F16" t="n">
-        <v>7.150463221592334</v>
+        <v>7.29432144521722</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.374209738127859</v>
+        <v>-5.34023521225358</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.912322400632434</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.96116242357882</v>
+        <v>-21.976532787115</v>
       </c>
       <c r="F17" t="n">
-        <v>7.472036363990809</v>
+        <v>7.618067909887422</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.481527344521488</v>
+        <v>-5.4659998733512</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.225061051784217</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.82995454785292</v>
+        <v>-22.84660795706759</v>
       </c>
       <c r="F18" t="n">
-        <v>7.871508708297555</v>
+        <v>8.022803359936542</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.927199242202806</v>
+        <v>-4.911187355827375</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.558028207123676</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.45050351794505</v>
+        <v>-23.46508834331073</v>
       </c>
       <c r="F19" t="n">
-        <v>8.177292533468909</v>
+        <v>8.332593429777464</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.069771236795324</v>
+        <v>-4.042866554455577</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.930491425993032</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.35785247408803</v>
+        <v>-24.36625773251242</v>
       </c>
       <c r="F20" t="n">
-        <v>8.39855245149408</v>
+        <v>8.547019165719254</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.64717788567009</v>
+        <v>-3.641089964848687</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.349006073370828</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.45574362243562</v>
+        <v>-24.45155408552626</v>
       </c>
       <c r="F21" t="n">
-        <v>8.237045803638548</v>
+        <v>8.386088579188756</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.625654139798292</v>
+        <v>-3.617654742761998</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.823837454298132</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.13090058768059</v>
+        <v>-25.12112063745782</v>
       </c>
       <c r="F22" t="n">
-        <v>8.639188977725006</v>
+        <v>8.787498584316078</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.03803549470698</v>
+        <v>-4.04835222934626</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.372034845013046</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.25099628164774</v>
+        <v>-25.2433896536967</v>
       </c>
       <c r="F23" t="n">
-        <v>8.267472315442719</v>
+        <v>8.400516296920339</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.93086190364461</v>
+        <v>-3.93821977784166</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.999958970934208</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.66518437434859</v>
+        <v>-25.66027476078294</v>
       </c>
       <c r="F24" t="n">
-        <v>8.243225370579841</v>
+        <v>8.368675816409262</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.814013100782205</v>
+        <v>-3.831308032836125</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.71598585321495</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.6904132419246</v>
+        <v>-25.66756717346578</v>
       </c>
       <c r="F25" t="n">
-        <v>8.375352890858542</v>
+        <v>8.492371893657889</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.696679882714656</v>
+        <v>-3.704417433694116</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.529208035905953</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.01439536804595</v>
+        <v>-25.9979383433739</v>
       </c>
       <c r="F26" t="n">
-        <v>8.271976067620272</v>
+        <v>8.386690825119477</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.516398872584088</v>
+        <v>-3.527461868485346</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.436779640667144</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.98692771668401</v>
+        <v>-25.97599564381116</v>
       </c>
       <c r="F27" t="n">
-        <v>8.18313170053632</v>
+        <v>8.295594581946746</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.649010808067931</v>
+        <v>-3.664983417534837</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.436183253025295</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.92170186392653</v>
+        <v>-25.91371555919308</v>
       </c>
       <c r="F28" t="n">
-        <v>8.060823407388915</v>
+        <v>8.179465855740636</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.885902935686123</v>
+        <v>-3.913855002253208</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.521897098269375</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.76230307682851</v>
+        <v>-25.74625191354455</v>
       </c>
       <c r="F29" t="n">
-        <v>8.000808291162443</v>
+        <v>8.122278676927976</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.692529622713829</v>
+        <v>-3.714773445241922</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.677610219073963</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.64562447390305</v>
+        <v>-25.63313441699204</v>
       </c>
       <c r="F30" t="n">
-        <v>8.100100315914093</v>
+        <v>8.225812607800346</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.837854184256988</v>
+        <v>-3.858592391958283</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.889373170983871</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.32792665314572</v>
+        <v>-25.31184930525609</v>
       </c>
       <c r="F31" t="n">
-        <v>7.929900378971654</v>
+        <v>8.045636336092512</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.245299740994345</v>
+        <v>-4.28227240421938</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.14303181483962</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.89309199886348</v>
+        <v>-24.87484132870211</v>
       </c>
       <c r="F32" t="n">
-        <v>8.089102781527043</v>
+        <v>8.212510828113153</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.14786682324622</v>
+        <v>-4.166654277824096</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.418762497480021</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.75106669763643</v>
+        <v>-24.7465367608532</v>
       </c>
       <c r="F33" t="n">
-        <v>8.118403355286826</v>
+        <v>8.249902445029122</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.279483743714092</v>
+        <v>-4.304110365359379</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.702763399365752</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.36714800910566</v>
+        <v>-24.36102081137573</v>
       </c>
       <c r="F34" t="n">
-        <v>8.241549555816102</v>
+        <v>8.374069845180053</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.308718855959667</v>
+        <v>-4.328972648455816</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.98428045285922</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.20324546983009</v>
+        <v>-24.19415941165793</v>
       </c>
       <c r="F35" t="n">
-        <v>8.133407134343443</v>
+        <v>8.266791515694949</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.471574011007897</v>
+        <v>-4.485595867351385</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.250093087833957</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.87415734560046</v>
+        <v>-23.86551642572492</v>
       </c>
       <c r="F36" t="n">
-        <v>8.282999786613006</v>
+        <v>8.425758256799186</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.383907951179699</v>
+        <v>-4.387730903609483</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.49587939472161</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.27566890579664</v>
+        <v>-23.25995814238657</v>
       </c>
       <c r="F37" t="n">
-        <v>8.239690448812576</v>
+        <v>8.37859978196329</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.498190662685126</v>
+        <v>-4.50489392174009</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.721387424540881</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.78910656298673</v>
+        <v>-22.77500615282619</v>
       </c>
       <c r="F38" t="n">
-        <v>8.237176726666965</v>
+        <v>8.386036209977389</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.485150729054767</v>
+        <v>-4.48464012924394</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.923520580180318</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.61259613607458</v>
+        <v>-22.60413850843883</v>
       </c>
       <c r="F39" t="n">
-        <v>8.395881621714368</v>
+        <v>8.545605197012348</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.732241760586663</v>
+        <v>-4.734807851943641</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.109233555682858</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.9147502100049</v>
+        <v>-21.89944530798292</v>
       </c>
       <c r="F40" t="n">
-        <v>8.680351177859391</v>
+        <v>8.831776752526796</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.67980708770555</v>
+        <v>-4.678510949724219</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.286440254032092</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.22760069535691</v>
+        <v>-21.20428330399579</v>
       </c>
       <c r="F41" t="n">
-        <v>8.661864846246875</v>
+        <v>8.811326575488019</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.715025382349793</v>
+        <v>-4.716661920205009</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.456599639548036</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.52802658531211</v>
+        <v>-20.50516742455046</v>
       </c>
       <c r="F42" t="n">
-        <v>8.650134142900688</v>
+        <v>8.79472553548471</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.047779351375103</v>
+        <v>-5.052780611060642</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.631581011175962</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.66981304173413</v>
+        <v>-19.64009351428341</v>
       </c>
       <c r="F43" t="n">
-        <v>8.768226714533057</v>
+        <v>8.920385458159597</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.207754199798154</v>
+        <v>-5.208395722637398</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.817661203887407</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.0007570896134</v>
+        <v>-18.96387607250826</v>
       </c>
       <c r="F44" t="n">
-        <v>8.517613853536737</v>
+        <v>8.663383553376516</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.990723095590861</v>
+        <v>-4.98768568133158</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.012159472452836</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.51339611633015</v>
+        <v>-18.48454068086698</v>
       </c>
       <c r="F45" t="n">
-        <v>8.57270626389472</v>
+        <v>8.729211652064713</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.156314541933012</v>
+        <v>-5.160726647990674</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.222136886458172</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.85477472957428</v>
+        <v>-17.82733326281802</v>
       </c>
       <c r="F46" t="n">
-        <v>8.628924612297093</v>
+        <v>8.781030986712265</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.285103524987071</v>
+        <v>-5.292199553127287</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.445554907794982</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.71989782569882</v>
+        <v>-17.69305860487328</v>
       </c>
       <c r="F47" t="n">
-        <v>8.497320784132061</v>
+        <v>8.639084239302271</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.589551935268569</v>
+        <v>-5.594513918045584</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.674412093584827</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.06118479282305</v>
+        <v>-17.03420155666625</v>
       </c>
       <c r="F48" t="n">
-        <v>8.429319363172135</v>
+        <v>8.56822869632285</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.686762283868386</v>
+        <v>-5.689878251944716</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.910794032786657</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.18640948615028</v>
+        <v>-16.15418932885679</v>
       </c>
       <c r="F49" t="n">
-        <v>8.362312957228182</v>
+        <v>8.490617525077099</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.885870025485356</v>
+        <v>-5.887925517031507</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.147779708229429</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.63278836818505</v>
+        <v>-15.59832942710563</v>
       </c>
       <c r="F50" t="n">
-        <v>8.105991852192869</v>
+        <v>8.237752787992001</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.12582575196851</v>
+        <v>-6.131494719098979</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.377088237164262</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.91039437428713</v>
+        <v>-14.87597471011624</v>
       </c>
       <c r="F51" t="n">
-        <v>7.920395367108561</v>
+        <v>8.044798428710642</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.068821865395636</v>
+        <v>-6.063715867287362</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.601064829037437</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.22611207396148</v>
+        <v>-14.17592927716914</v>
       </c>
       <c r="F52" t="n">
-        <v>7.781224187901012</v>
+        <v>7.900652174423238</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.226571022335593</v>
+        <v>-6.210441305234586</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.813389103365623</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.73884274679812</v>
+        <v>-13.69775910048078</v>
       </c>
       <c r="F53" t="n">
-        <v>7.833488660845183</v>
+        <v>7.959672275633738</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.259354148651275</v>
+        <v>-6.241011832370017</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.011421785073496</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.30886533687015</v>
+        <v>-13.26492756853332</v>
       </c>
       <c r="F54" t="n">
-        <v>7.613956926795121</v>
+        <v>7.743073217420223</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.481530527875367</v>
+        <v>-6.466304179670439</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.20119115139009</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.72137443145338</v>
+        <v>-12.67568229453575</v>
       </c>
       <c r="F55" t="n">
-        <v>7.561352053977065</v>
+        <v>7.679837394694686</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.820176033179453</v>
+        <v>-6.813538235638697</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.378617866148852</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.42758315568504</v>
+        <v>-12.37745272810407</v>
       </c>
       <c r="F56" t="n">
-        <v>7.621052954935336</v>
+        <v>7.741816356347417</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.756272503008988</v>
+        <v>-6.744725091902586</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.546278380537583</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.96833135660298</v>
+        <v>-11.92165729697222</v>
       </c>
       <c r="F57" t="n">
-        <v>7.252845029814631</v>
+        <v>7.367847817976354</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.989053647534877</v>
+        <v>-6.98436660311754</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.711571516742077</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.53222674894508</v>
+        <v>-11.4880533191571</v>
       </c>
       <c r="F58" t="n">
-        <v>7.411995063158654</v>
+        <v>7.537288401353972</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.773007649394593</v>
+        <v>-7.781858046115599</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.870021383884652</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.53107462629501</v>
+        <v>-11.50337131348192</v>
       </c>
       <c r="F59" t="n">
-        <v>7.267063270700747</v>
+        <v>7.386229411166137</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.768412251097147</v>
+        <v>-7.76426199109632</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.027921074424466</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.31713330555836</v>
+        <v>-11.29109271520617</v>
       </c>
       <c r="F60" t="n">
-        <v>7.11061025174212</v>
+        <v>7.230902330251899</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.008184685340519</v>
+        <v>-8.009768853984367</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.192394850092615</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.36375499597775</v>
+        <v>-11.34758600196822</v>
       </c>
       <c r="F61" t="n">
-        <v>6.933837978773134</v>
+        <v>7.052558980941907</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.473092359250211</v>
+        <v>-8.477059327011254</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.356734401396288</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.47460752413865</v>
+        <v>-11.46469665088746</v>
       </c>
       <c r="F62" t="n">
-        <v>6.985919159477521</v>
+        <v>7.113097789282048</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.712328009077071</v>
+        <v>-8.722972051287394</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.529800566518141</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.09946067851183</v>
+        <v>-11.0984787557987</v>
       </c>
       <c r="F63" t="n">
-        <v>7.321684358156427</v>
+        <v>7.457791938499011</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.766111189150882</v>
+        <v>-8.775301985745774</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.71578213416406</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.81921993618468</v>
+        <v>-10.81085395466882</v>
       </c>
       <c r="F64" t="n">
-        <v>7.170311152700391</v>
+        <v>7.299820212410745</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.998224626231844</v>
+        <v>-9.030405506616805</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.904274907451773</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.84247186603159</v>
+        <v>-10.82526858009756</v>
       </c>
       <c r="F65" t="n">
-        <v>7.146692638373917</v>
+        <v>7.275363790702401</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.062416187064827</v>
+        <v>-9.09339257558835</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.10412559269724</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.55213695821347</v>
+        <v>-10.53062630464451</v>
       </c>
       <c r="F66" t="n">
-        <v>6.959813107611119</v>
+        <v>7.088955582841905</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.465790037618406</v>
+        <v>-9.504281407973082</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.315252844747219</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.78287570349605</v>
+        <v>-10.76345981838177</v>
       </c>
       <c r="F67" t="n">
-        <v>6.723627964346381</v>
+        <v>6.850492378882707</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.513537666082181</v>
+        <v>-9.555760342746748</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.523780437483117</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.95479073211075</v>
+        <v>-10.94502387419083</v>
       </c>
       <c r="F68" t="n">
-        <v>6.690059299860195</v>
+        <v>6.819961128655801</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.341858298918627</v>
+        <v>-9.38389768334341</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.737133761159129</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.75649471326997</v>
+        <v>-10.75200405339526</v>
       </c>
       <c r="F69" t="n">
-        <v>6.667016846858757</v>
+        <v>6.792284000448392</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.329931211029814</v>
+        <v>-9.372428826054058</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.94922896505182</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.01916558518352</v>
+        <v>-11.02256958392237</v>
       </c>
       <c r="F70" t="n">
-        <v>6.480844300449412</v>
+        <v>6.602812193722932</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.466968344874161</v>
+        <v>-9.518381818133619</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.14568296900813</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.97839615413439</v>
+        <v>-10.97486123236712</v>
       </c>
       <c r="F71" t="n">
-        <v>6.114731143783384</v>
+        <v>6.229210239831438</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.428568620639378</v>
+        <v>-9.481108031943226</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.33217417068223</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.00751343565438</v>
+        <v>-10.99816553142539</v>
       </c>
       <c r="F72" t="n">
-        <v>6.37092132579028</v>
+        <v>6.49940918587898</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.718366744040985</v>
+        <v>-9.787559564559508</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.49997328691927</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.45210185555372</v>
+        <v>-11.44080319820131</v>
       </c>
       <c r="F73" t="n">
-        <v>6.503546353576965</v>
+        <v>6.635595320038615</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.429236328084308</v>
+        <v>-9.483962153962722</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.63806445358521</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.58556479072227</v>
+        <v>-11.57060028857418</v>
       </c>
       <c r="F74" t="n">
-        <v>6.443766898801644</v>
+        <v>6.568091406586675</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.512974697059986</v>
+        <v>-9.574901289501351</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.75151358325386</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.11800256268959</v>
+        <v>-12.11048758085844</v>
       </c>
       <c r="F75" t="n">
-        <v>6.415173309395314</v>
+        <v>6.53991677087128</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.697353597980015</v>
+        <v>-9.777439214462854</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.83105954813368</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.99625723856438</v>
+        <v>-11.97915869105308</v>
       </c>
       <c r="F76" t="n">
-        <v>6.305957319089636</v>
+        <v>6.429208258041645</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.759371836541272</v>
+        <v>-9.844249235864181</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.87149434942501</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.70999722028392</v>
+        <v>-12.70404022249093</v>
       </c>
       <c r="F77" t="n">
-        <v>6.258746475042371</v>
+        <v>6.376105877715604</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.504163577247505</v>
+        <v>-9.588137607674337</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.87919894188009</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.40475336288295</v>
+        <v>-13.39807628843367</v>
       </c>
       <c r="F78" t="n">
-        <v>6.314441131331074</v>
+        <v>6.434078594698767</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.865717429170735</v>
+        <v>-8.935577957134184</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.84590794383753</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.64789051895665</v>
+        <v>-13.62730941888946</v>
       </c>
       <c r="F79" t="n">
-        <v>6.505981521905526</v>
+        <v>6.638475626663794</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.1009075574195</v>
+        <v>-9.191637216112662</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.77231317133115</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.24624803573206</v>
+        <v>-14.22755222727407</v>
       </c>
       <c r="F80" t="n">
-        <v>6.497811924932289</v>
+        <v>6.629572860731421</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.498556888277367</v>
+        <v>-8.58080273472909</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.66410565305249</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.83373894114883</v>
+        <v>-14.82258429912768</v>
       </c>
       <c r="F81" t="n">
-        <v>6.610562837005235</v>
+        <v>6.750650477411703</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.352054019478453</v>
+        <v>-8.437599126246292</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.51268364482185</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.68031342750052</v>
+        <v>-15.66554530989505</v>
       </c>
       <c r="F82" t="n">
-        <v>6.642089102248111</v>
+        <v>6.781391204484076</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.243492644314861</v>
+        <v>-8.33526968723536</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.32337357815396</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.69190329886932</v>
+        <v>-16.68065701072828</v>
       </c>
       <c r="F83" t="n">
-        <v>6.8085708251835</v>
+        <v>6.951146003129896</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.11666750668706</v>
+        <v>-8.210984456358855</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.10113756760489</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.58485072188641</v>
+        <v>-17.57373535677378</v>
       </c>
       <c r="F84" t="n">
-        <v>6.753740260882351</v>
+        <v>6.908360357443136</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.773007649394593</v>
+        <v>-7.859181186698834</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.837941836460345</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.44560417221569</v>
+        <v>-18.4160810293076</v>
       </c>
       <c r="F85" t="n">
-        <v>6.948606096378601</v>
+        <v>7.094349611612696</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.537896074962876</v>
+        <v>-7.614211108227297</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.544322596628426</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.72995908098902</v>
+        <v>-19.69454440180215</v>
       </c>
       <c r="F86" t="n">
-        <v>6.813703007897456</v>
+        <v>6.963295660167018</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.581441074214457</v>
+        <v>-7.668334688174992</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.22594347995094</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.7714124951398</v>
+        <v>-20.73426963197782</v>
       </c>
       <c r="F87" t="n">
-        <v>6.907496265455581</v>
+        <v>7.063137561638021</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.03185238552448</v>
+        <v>-7.107866295823541</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.87817317001438</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.08742459218442</v>
+        <v>-22.04144442460428</v>
       </c>
       <c r="F88" t="n">
-        <v>7.230640484195065</v>
+        <v>7.384317934951245</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.097065145979117</v>
+        <v>-7.170264211167208</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.518896607551248</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.75403546702763</v>
+        <v>-23.71797926500151</v>
       </c>
       <c r="F89" t="n">
-        <v>7.055046518481834</v>
+        <v>7.216081843435065</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.777076172224491</v>
+        <v>-6.846753407948157</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.15565896518835</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.97879421326542</v>
+        <v>-24.92321738770229</v>
       </c>
       <c r="F90" t="n">
-        <v>7.369706924979878</v>
+        <v>7.530375665453541</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.18189017609066</v>
+        <v>-7.255390364244111</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.787945507904774</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.7182244765143</v>
+        <v>-26.66157408211815</v>
       </c>
       <c r="F91" t="n">
-        <v>7.45679692348304</v>
+        <v>7.63003427468476</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.726893375432154</v>
+        <v>-6.783844892793663</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.43289282906805</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.70698455508101</v>
+        <v>-28.65498192819368</v>
       </c>
       <c r="F92" t="n">
-        <v>7.157349772887081</v>
+        <v>7.321082112225708</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.980897142864482</v>
+        <v>-7.042300043192177</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.093031094451172</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.56047496068702</v>
+        <v>-30.51558145424274</v>
       </c>
       <c r="F93" t="n">
-        <v>7.200842402927296</v>
+        <v>7.374682000059734</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.239781155902895</v>
+        <v>-6.279306818182065</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.764551287216118</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.53466330619089</v>
+        <v>-32.48949486138694</v>
       </c>
       <c r="F94" t="n">
-        <v>7.155647773517657</v>
+        <v>7.320558420112039</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.612649940835253</v>
+        <v>-6.653628848729856</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.457618841866878</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.88731084994054</v>
+        <v>-34.85266861662133</v>
       </c>
       <c r="F95" t="n">
-        <v>7.132055443796867</v>
+        <v>7.295971075375277</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.976062899762006</v>
+        <v>-5.989927648471395</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.16536125073269</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.31842056462065</v>
+        <v>-37.29109692858997</v>
       </c>
       <c r="F96" t="n">
-        <v>6.878195691695798</v>
+        <v>7.042635015387878</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.903217326750642</v>
+        <v>-5.910889416215894</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.883435884331255</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.28987261883061</v>
+        <v>-39.25615993901316</v>
       </c>
       <c r="F97" t="n">
-        <v>6.824595803861772</v>
+        <v>6.984400452347881</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.486358404270084</v>
+        <v>-5.481579713732854</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.61100273591152</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.7020246789959</v>
+        <v>-41.67011873697061</v>
       </c>
       <c r="F98" t="n">
-        <v>6.739443466179186</v>
+        <v>6.909460110881841</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.665997891561408</v>
+        <v>-5.662214216040149</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.345496928689285</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.09888492944206</v>
+        <v>-44.0658268647667</v>
       </c>
       <c r="F99" t="n">
-        <v>6.565996638131999</v>
+        <v>6.732216515010553</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.408105710185088</v>
+        <v>-5.398731621350412</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.072376860281925</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.21735045226175</v>
+        <v>-46.17859723585024</v>
       </c>
       <c r="F100" t="n">
-        <v>6.299332613851722</v>
+        <v>6.45898015470373</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.463617074234007</v>
+        <v>-5.454609569878898</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.809203148637068</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.6329065111659</v>
+        <v>-48.6071146745677</v>
       </c>
       <c r="F101" t="n">
-        <v>6.279091913658414</v>
+        <v>6.443950191041428</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.472323455623754</v>
+        <v>-5.451624524830986</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.522675958518116</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.12722586396586</v>
+        <v>-51.1058068565168</v>
       </c>
       <c r="F102" t="n">
-        <v>5.535763327516574</v>
+        <v>5.680747489185849</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.161630016886753</v>
+        <v>-5.136990302938624</v>
       </c>
     </row>
   </sheetData>
